--- a/input/week 6 alles.xlsx
+++ b/input/week 6 alles.xlsx
@@ -368,11 +368,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -409,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -425,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="1">
         <v>333</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -444,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -460,13 +471,13 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="1">
         <v>333</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -479,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -495,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="1">
         <v>333</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -514,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
@@ -530,13 +541,13 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="1">
         <v>333</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -549,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -565,13 +576,13 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="G6" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H6" s="1">
         <v>333</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -584,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
@@ -600,13 +611,13 @@
         <v>2.6999999999999957</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="1">
         <v>333</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -619,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
         <v>15</v>
@@ -635,13 +646,13 @@
         <v>3.2999999999999972</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="1">
         <v>333</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -654,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -670,13 +681,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="1">
         <v>333</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -689,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -705,13 +716,13 @@
         <v>4.6000000000000014</v>
       </c>
       <c r="G10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="1">
         <v>333</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -724,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="1">
         <v>15</v>
@@ -740,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="1">
         <v>333</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -759,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
@@ -775,13 +786,13 @@
         <v>5.4000000000000057</v>
       </c>
       <c r="G12" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H12" s="1">
         <v>333</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -794,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="1">
         <v>15</v>
@@ -810,13 +821,13 @@
         <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="1">
         <v>333</v>
       </c>
       <c r="I13" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="1">
         <v>15</v>
@@ -840,13 +851,13 @@
         <v>6.7999999999999972</v>
       </c>
       <c r="G14" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14" s="1">
         <v>333</v>
       </c>
       <c r="I14" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -854,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -870,13 +881,13 @@
         <v>7.2000000000000028</v>
       </c>
       <c r="G15" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="1">
         <v>333</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -884,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -900,13 +911,13 @@
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H16" s="1">
         <v>333</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -914,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -930,13 +941,13 @@
         <v>8.6000000000000085</v>
       </c>
       <c r="G17" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H17" s="1">
         <v>333</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
@@ -960,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="1">
         <v>333</v>
       </c>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="1">
         <v>15</v>
@@ -990,13 +1001,13 @@
         <v>9.6000000000000085</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="1">
         <v>333</v>
       </c>
       <c r="I19" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1004,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="1">
         <v>15</v>
@@ -1020,13 +1031,13 @@
         <v>10.199999999999989</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H20" s="1">
         <v>333</v>
       </c>
       <c r="I20" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="1">
         <v>15</v>
@@ -1050,13 +1061,13 @@
         <v>11</v>
       </c>
       <c r="G21" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="1">
         <v>333</v>
       </c>
       <c r="I21" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1064,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="1">
         <v>15</v>
@@ -1080,13 +1091,13 @@
         <v>11.400000000000006</v>
       </c>
       <c r="G22" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H22" s="1">
         <v>333</v>
       </c>
       <c r="I22" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1109,13 +1120,13 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H23">
         <v>327</v>
       </c>
       <c r="I23" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1123,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1138,13 +1149,13 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H24">
         <v>327</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1167,13 +1178,13 @@
         <v>1.2</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H25">
         <v>327</v>
       </c>
       <c r="I25" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -1196,13 +1207,13 @@
         <v>1.7</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H26">
         <v>327</v>
       </c>
       <c r="I26" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1210,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1225,13 +1236,13 @@
         <v>2.4</v>
       </c>
       <c r="G27" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H27">
         <v>327</v>
       </c>
       <c r="I27" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1239,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1254,13 +1265,13 @@
         <v>2.9</v>
       </c>
       <c r="G28" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H28">
         <v>327</v>
       </c>
       <c r="I28" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -1283,13 +1294,13 @@
         <v>3.6</v>
       </c>
       <c r="G29" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H29">
         <v>327</v>
       </c>
       <c r="I29" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -1312,13 +1323,13 @@
         <v>4.5</v>
       </c>
       <c r="G30" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H30">
         <v>327</v>
       </c>
       <c r="I30" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1326,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1341,13 +1352,13 @@
         <v>5.5</v>
       </c>
       <c r="G31" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H31">
         <v>327</v>
       </c>
       <c r="I31" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -1370,13 +1381,13 @@
         <v>6</v>
       </c>
       <c r="G32" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H32">
         <v>327</v>
       </c>
       <c r="I32" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1399,13 +1410,13 @@
         <v>6.4</v>
       </c>
       <c r="G33" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H33">
         <v>327</v>
       </c>
       <c r="I33" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C34" s="1">
         <v>15</v>
@@ -1429,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="1">
         <v>330</v>
       </c>
       <c r="I34" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1443,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C35" s="1">
         <v>15</v>
@@ -1459,13 +1470,13 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H35" s="1">
         <v>330</v>
       </c>
       <c r="I35" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C36" s="1">
         <v>15</v>
@@ -1489,13 +1500,13 @@
         <v>1.0999999999999996</v>
       </c>
       <c r="G36" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H36" s="1">
         <v>330</v>
       </c>
       <c r="I36" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C37" s="1">
         <v>15</v>
@@ -1519,13 +1530,13 @@
         <v>1.7000000000000028</v>
       </c>
       <c r="G37" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H37" s="1">
         <v>330</v>
       </c>
       <c r="I37" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C38" s="1">
         <v>15</v>
@@ -1549,13 +1560,13 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="G38" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H38" s="1">
         <v>330</v>
       </c>
       <c r="I38" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1563,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C39" s="1">
         <v>15</v>
@@ -1579,13 +1590,13 @@
         <v>2.6999999999999957</v>
       </c>
       <c r="G39" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H39" s="1">
         <v>330</v>
       </c>
       <c r="I39" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1593,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="1">
         <v>15</v>
@@ -1609,13 +1620,13 @@
         <v>3.3000000000000043</v>
       </c>
       <c r="G40" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H40" s="1">
         <v>330</v>
       </c>
       <c r="I40" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C41" s="1">
         <v>15</v>
@@ -1639,13 +1650,13 @@
         <v>3.7999999999999972</v>
       </c>
       <c r="G41" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H41" s="1">
         <v>330</v>
       </c>
       <c r="I41" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C42" s="1">
         <v>15</v>
@@ -1669,13 +1680,13 @@
         <v>4.3999999999999986</v>
       </c>
       <c r="G42" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H42" s="1">
         <v>330</v>
       </c>
       <c r="I42" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1683,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="1">
         <v>15</v>
@@ -1699,13 +1710,13 @@
         <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H43" s="1">
         <v>330</v>
       </c>
       <c r="I43" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C44" s="1">
         <v>15</v>
@@ -1729,13 +1740,13 @@
         <v>5.3999999999999915</v>
       </c>
       <c r="G44" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H44" s="1">
         <v>330</v>
       </c>
       <c r="I44" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C45" s="1">
         <v>15</v>
@@ -1759,13 +1770,13 @@
         <v>6.1999999999999886</v>
       </c>
       <c r="G45" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H45" s="1">
         <v>330</v>
       </c>
       <c r="I45" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C46" s="1">
         <v>15</v>
@@ -1789,13 +1800,13 @@
         <v>6.7000000000000028</v>
       </c>
       <c r="G46" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H46" s="1">
         <v>330</v>
       </c>
       <c r="I46" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1803,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="1">
         <v>15</v>
@@ -1819,13 +1830,13 @@
         <v>7.2000000000000028</v>
       </c>
       <c r="G47" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H47" s="1">
         <v>330</v>
       </c>
       <c r="I47" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C48" s="1">
         <v>15</v>
@@ -1849,13 +1860,13 @@
         <v>7.7000000000000028</v>
       </c>
       <c r="G48" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H48" s="1">
         <v>330</v>
       </c>
       <c r="I48" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1863,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C49" s="1">
         <v>15</v>
@@ -1879,13 +1890,13 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="G49" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" s="1">
         <v>330</v>
       </c>
       <c r="I49" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C50" s="1">
         <v>15</v>
@@ -1909,13 +1920,13 @@
         <v>8.9000000000000057</v>
       </c>
       <c r="G50" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H50" s="1">
         <v>330</v>
       </c>
       <c r="I50" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1923,7 +1934,7 @@
         <v>17</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C51" s="1">
         <v>15</v>
@@ -1939,13 +1950,13 @@
         <v>9.2999999999999972</v>
       </c>
       <c r="G51" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H51" s="1">
         <v>330</v>
       </c>
       <c r="I51" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C52" s="1">
         <v>15</v>
@@ -1969,13 +1980,13 @@
         <v>10.400000000000006</v>
       </c>
       <c r="G52" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H52" s="1">
         <v>330</v>
       </c>
       <c r="I52" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C53" s="1">
         <v>15</v>
@@ -1999,13 +2010,13 @@
         <v>10.700000000000017</v>
       </c>
       <c r="G53" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H53" s="1">
         <v>330</v>
       </c>
       <c r="I53" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="1">
         <v>15</v>
@@ -2029,13 +2040,13 @@
         <v>11.400000000000006</v>
       </c>
       <c r="G54" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H54" s="1">
         <v>330</v>
       </c>
       <c r="I54" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C55">
         <v>15</v>
@@ -2058,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H55">
         <v>330</v>
       </c>
       <c r="I55" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -2087,13 +2098,13 @@
         <v>0.5</v>
       </c>
       <c r="G56" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H56">
         <v>330</v>
       </c>
       <c r="I56" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2101,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C57">
         <v>15</v>
@@ -2116,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H57">
         <v>330</v>
       </c>
       <c r="I57" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2130,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C58">
         <v>15</v>
@@ -2145,13 +2156,13 @@
         <v>1.8</v>
       </c>
       <c r="G58" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H58">
         <v>330</v>
       </c>
       <c r="I58" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C59">
         <v>15</v>
@@ -2174,13 +2185,13 @@
         <v>2.6</v>
       </c>
       <c r="G59" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H59">
         <v>330</v>
       </c>
       <c r="I59" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C60">
         <v>15</v>
@@ -2203,13 +2214,13 @@
         <v>3.1</v>
       </c>
       <c r="G60" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H60">
         <v>330</v>
       </c>
       <c r="I60" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2217,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C61">
         <v>15</v>
@@ -2232,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="G61" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H61">
         <v>330</v>
       </c>
       <c r="I61" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2246,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C62">
         <v>15</v>
@@ -2261,13 +2272,13 @@
         <v>4.8</v>
       </c>
       <c r="G62" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H62">
         <v>330</v>
       </c>
       <c r="I62" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2275,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C63">
         <v>15</v>
@@ -2290,13 +2301,13 @@
         <v>5.3</v>
       </c>
       <c r="G63" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H63">
         <v>330</v>
       </c>
       <c r="I63" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2304,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -2319,13 +2330,13 @@
         <v>5.6</v>
       </c>
       <c r="G64" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H64">
         <v>330</v>
       </c>
       <c r="I64" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2333,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="1">
         <v>15</v>
@@ -2348,13 +2359,13 @@
         <v>-0.14999999999999991</v>
       </c>
       <c r="G65" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H65" s="1">
         <v>333</v>
       </c>
       <c r="I65" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C66" s="1">
         <v>15</v>
@@ -2377,13 +2388,13 @@
         <v>0.5</v>
       </c>
       <c r="G66" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H66" s="1">
         <v>333</v>
       </c>
       <c r="I66" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2391,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C67" s="1">
         <v>15</v>
@@ -2406,13 +2417,13 @@
         <v>1.0999999999999996</v>
       </c>
       <c r="G67" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H67" s="1">
         <v>333</v>
       </c>
       <c r="I67" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2420,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C68" s="1">
         <v>15</v>
@@ -2435,13 +2446,13 @@
         <v>1.7000000000000011</v>
       </c>
       <c r="G68" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H68" s="1">
         <v>333</v>
       </c>
       <c r="I68" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2449,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C69" s="1">
         <v>15</v>
@@ -2464,13 +2475,13 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="G69" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H69" s="1">
         <v>333</v>
       </c>
       <c r="I69" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2478,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C70" s="1">
         <v>15</v>
@@ -2493,13 +2504,13 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="G70" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" s="1">
         <v>333</v>
       </c>
       <c r="I70" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C71" s="1">
         <v>15</v>
@@ -2522,13 +2533,13 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="G71" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H71" s="1">
         <v>333</v>
       </c>
       <c r="I71" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2536,7 +2547,7 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C72" s="1">
         <v>15</v>
@@ -2551,13 +2562,13 @@
         <v>3.75</v>
       </c>
       <c r="G72" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H72" s="1">
         <v>333</v>
       </c>
       <c r="I72" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2565,7 +2576,7 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C73" s="1">
         <v>15</v>
@@ -2580,13 +2591,13 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="G73" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H73" s="1">
         <v>333</v>
       </c>
       <c r="I73" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C74" s="1">
         <v>15</v>
@@ -2609,13 +2620,13 @@
         <v>4.8499999999999979</v>
       </c>
       <c r="G74" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H74" s="1">
         <v>333</v>
       </c>
       <c r="I74" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2623,7 +2634,7 @@
         <v>10</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C75" s="1">
         <v>15</v>
@@ -2638,13 +2649,13 @@
         <v>5.4999999999999929</v>
       </c>
       <c r="G75" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H75" s="1">
         <v>333</v>
       </c>
       <c r="I75" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
@@ -2667,13 +2678,13 @@
         <v>6</v>
       </c>
       <c r="G76" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H76" s="1">
         <v>333</v>
       </c>
       <c r="I76" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2681,7 +2692,7 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C77" s="1">
         <v>15</v>
@@ -2696,13 +2707,13 @@
         <v>6.5</v>
       </c>
       <c r="G77" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H77" s="1">
         <v>333</v>
       </c>
       <c r="I77" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C78" s="1">
         <v>15</v>
@@ -2725,13 +2736,13 @@
         <v>7.0499999999999972</v>
       </c>
       <c r="G78" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H78" s="1">
         <v>333</v>
       </c>
       <c r="I78" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2739,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C79" s="1">
         <v>15</v>
@@ -2754,13 +2765,13 @@
         <v>7.5499999999999972</v>
       </c>
       <c r="G79" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H79" s="1">
         <v>333</v>
       </c>
       <c r="I79" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2768,7 +2779,7 @@
         <v>15</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C80" s="1">
         <v>15</v>
@@ -2783,13 +2794,13 @@
         <v>8.1499999999999986</v>
       </c>
       <c r="G80" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H80" s="1">
         <v>333</v>
       </c>
       <c r="I80" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C81" s="1">
         <v>15</v>
@@ -2812,13 +2823,13 @@
         <v>8.75</v>
       </c>
       <c r="G81" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H81" s="1">
         <v>333</v>
       </c>
       <c r="I81" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2826,7 +2837,7 @@
         <v>17</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C82" s="1">
         <v>15</v>
@@ -2841,13 +2852,13 @@
         <v>9.2499999999999929</v>
       </c>
       <c r="G82" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H82" s="1">
         <v>333</v>
       </c>
       <c r="I82" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2855,7 +2866,7 @@
         <v>18</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C83" s="1">
         <v>15</v>
@@ -2870,13 +2881,13 @@
         <v>9.8499999999999801</v>
       </c>
       <c r="G83" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H83" s="1">
         <v>333</v>
       </c>
       <c r="I83" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2884,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C84" s="1">
         <v>15</v>
@@ -2899,13 +2910,13 @@
         <v>10.550000000000011</v>
       </c>
       <c r="G84" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H84" s="1">
         <v>333</v>
       </c>
       <c r="I84" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2913,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C85" s="1">
         <v>15</v>
@@ -2928,13 +2939,13 @@
         <v>10.900000000000006</v>
       </c>
       <c r="G85" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H85" s="1">
         <v>333</v>
       </c>
       <c r="I85" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2942,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C86" s="1">
         <v>15</v>
@@ -2957,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H86" s="1">
         <v>332</v>
       </c>
       <c r="I86" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2971,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C87" s="1">
         <v>15</v>
@@ -2986,13 +2997,13 @@
         <v>0.5</v>
       </c>
       <c r="G87" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H87" s="1">
         <v>332</v>
       </c>
       <c r="I87" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3000,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C88" s="1">
         <v>15</v>
@@ -3015,13 +3026,13 @@
         <v>1.0499999999999972</v>
       </c>
       <c r="G88" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H88" s="1">
         <v>332</v>
       </c>
       <c r="I88" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3029,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="1">
         <v>15</v>
@@ -3044,13 +3055,13 @@
         <v>1.7500000000000142</v>
       </c>
       <c r="G89" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H89" s="1">
         <v>332</v>
       </c>
       <c r="I89" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3058,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C90" s="1">
         <v>15</v>
@@ -3073,13 +3084,13 @@
         <v>2.3500000000000227</v>
       </c>
       <c r="G90" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H90" s="1">
         <v>332</v>
       </c>
       <c r="I90" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3087,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C91" s="1">
         <v>15</v>
@@ -3102,13 +3113,13 @@
         <v>2.8499999999999943</v>
       </c>
       <c r="G91" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H91" s="1">
         <v>332</v>
       </c>
       <c r="I91" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3116,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C92" s="1">
         <v>15</v>
@@ -3131,13 +3142,13 @@
         <v>3.3499999999999659</v>
       </c>
       <c r="G92" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" s="1">
         <v>332</v>
       </c>
       <c r="I92" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3145,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C93" s="1">
         <v>15</v>
@@ -3160,13 +3171,13 @@
         <v>4.3999999999999773</v>
       </c>
       <c r="G93" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H93" s="1">
         <v>332</v>
       </c>
       <c r="I93" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3174,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C94" s="1">
         <v>15</v>
@@ -3189,13 +3200,13 @@
         <v>4.7999999999999545</v>
       </c>
       <c r="G94" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H94" s="1">
         <v>332</v>
       </c>
       <c r="I94" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3203,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C95" s="1">
         <v>15</v>
@@ -3218,13 +3229,13 @@
         <v>5.4500000000000455</v>
       </c>
       <c r="G95" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H95" s="1">
         <v>332</v>
       </c>
       <c r="I95" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3232,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C96" s="1">
         <v>15</v>
@@ -3247,13 +3258,13 @@
         <v>6.0500000000000114</v>
       </c>
       <c r="G96" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H96" s="1">
         <v>332</v>
       </c>
       <c r="I96" s="1">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
